--- a/Proyectos/2016/9/P1915 - LIC,AD,CONT,Martha Guerra _AG/Compras/FTO SOL NOTA DEV P1915.xlsx
+++ b/Proyectos/2016/9/P1915 - LIC,AD,CONT,Martha Guerra _AG/Compras/FTO SOL NOTA DEV P1915.xlsx
@@ -726,80 +726,82 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -830,25 +832,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,58 +848,68 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1284,54 +1284,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="108"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="36"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="81" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
       <c r="J3" s="6"/>
       <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="5" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="52" t="s">
         <v>35</v>
       </c>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="6" spans="1:11" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
@@ -1372,15 +1372,15 @@
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
       <c r="J7" s="6"/>
       <c r="K7" s="38"/>
     </row>
@@ -1390,13 +1390,13 @@
       <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="17"/>
       <c r="J8" s="6"/>
       <c r="K8" s="38"/>
@@ -1407,14 +1407,14 @@
       <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="113">
         <v>6256</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="74"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="6"/>
       <c r="K9" s="38"/>
     </row>
@@ -1424,12 +1424,12 @@
       <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="6"/>
       <c r="K10" s="38"/>
     </row>
@@ -1439,14 +1439,14 @@
       <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="6"/>
       <c r="K11" s="38"/>
     </row>
@@ -1456,12 +1456,12 @@
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
       <c r="J12" s="6"/>
       <c r="K12" s="38"/>
     </row>
@@ -1471,14 +1471,14 @@
       <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="98">
-        <v>42647</v>
-      </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="D13" s="57">
+        <v>42650</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="6"/>
       <c r="K13" s="38"/>
     </row>
@@ -1488,16 +1488,16 @@
       <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="92">
         <v>30</v>
       </c>
-      <c r="E14" s="95"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="6"/>
       <c r="K14" s="38"/>
     </row>
@@ -1507,13 +1507,13 @@
       <c r="C15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="15"/>
       <c r="J15" s="6"/>
       <c r="K15" s="38"/>
@@ -1521,15 +1521,15 @@
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="74"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="6"/>
       <c r="K16" s="38"/>
     </row>
@@ -1539,16 +1539,16 @@
       <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="93">
         <v>3390</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="91" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
       <c r="J17" s="6"/>
       <c r="K17" s="38"/>
     </row>
@@ -1558,14 +1558,14 @@
       <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D18" s="85">
         <v>1017</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="6"/>
       <c r="K18" s="38"/>
     </row>
@@ -1575,11 +1575,11 @@
       <c r="C19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="86">
         <v>379.68</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="20"/>
       <c r="H19" s="33" t="s">
         <v>12</v>
@@ -1596,12 +1596,12 @@
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="89">
+      <c r="D20" s="87">
         <f>D17-D18+D19</f>
         <v>2752.68</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="21"/>
       <c r="H20" s="33" t="s">
         <v>34</v>
@@ -1613,41 +1613,41 @@
     <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="6"/>
       <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="74"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
       <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="118"/>
       <c r="J23" s="6"/>
       <c r="K23" s="38"/>
     </row>
@@ -1670,10 +1670,10 @@
       <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="79"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="16" t="s">
         <v>2</v>
       </c>
@@ -1695,13 +1695,13 @@
     <row r="26" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="6"/>
       <c r="K26" s="38"/>
     </row>
@@ -1728,15 +1728,15 @@
     </row>
     <row r="28" spans="1:12" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="74"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1745,14 +1745,14 @@
       <c r="C29" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="114"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="6"/>
       <c r="K29" s="38"/>
     </row>
@@ -1772,30 +1772,30 @@
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="117"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="75"/>
       <c r="J31" s="6"/>
       <c r="K31" s="38"/>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="101"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="6"/>
       <c r="K32" s="38"/>
     </row>
@@ -1805,42 +1805,42 @@
       <c r="C33" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="101"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="18"/>
       <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="18"/>
       <c r="K34" s="38"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="101"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="18"/>
       <c r="K35" s="38"/>
     </row>
@@ -1892,15 +1892,15 @@
     <row r="39" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="67"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
       <c r="J39" s="11"/>
       <c r="K39" s="38"/>
     </row>
@@ -1923,10 +1923,10 @@
       <c r="C41" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
       <c r="J41" s="11"/>
       <c r="K41" s="38"/>
     </row>
@@ -1952,46 +1952,46 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="36"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="57" t="s">
+      <c r="G44" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
       <c r="J44" s="6"/>
       <c r="K44" s="38"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="36"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="61" t="s">
+      <c r="G45" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
       <c r="J45" s="6"/>
       <c r="K45" s="38"/>
     </row>
     <row r="46" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="60"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="100"/>
       <c r="K46" s="38"/>
     </row>
     <row r="47" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2116,6 +2116,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:E6"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C21:I21"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D13:F13"/>
@@ -2132,38 +2164,6 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="B3:E6"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
